--- a/docs/PPG/Internacionalização.xlsx
+++ b/docs/PPG/Internacionalização.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F5A1D-E994-2940-864B-C49EAF551457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF80913C-429D-6F45-BC51-184B2FDD7AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" activeTab="2" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Publicação</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U</t>
+  </si>
+  <si>
+    <t>Universidad Viña del Mar - Carta-convite</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ycsc2Rdk09Nld6pLlAuN6n-xtbkotGGE</t>
   </si>
 </sst>
 </file>
@@ -460,14 +466,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,13 +490,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44645</v>
+        <v>44861</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -504,10 +510,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44645</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -572,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
